--- a/raw-data/JRL_block1_30_10_7.xlsx
+++ b/raw-data/JRL_block1_30_10_7.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">919620608</definedName>
-    <definedName name="MethodPointer2">483</definedName>
+    <definedName name="MethodPointer1">387980464</definedName>
+    <definedName name="MethodPointer2">566</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_10_6.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_10_8.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -529,6 +529,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD8E9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBAD7EF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,7 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
+        <fgColor rgb="FF7EB2DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF247CBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,37 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9CC5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFABCEEA"/>
+        <fgColor rgb="FF60A0D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
+        <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
+        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,73 +684,70 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45767</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.54056712962962961</v>
+        <v>0.49434027777777773</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1645,7 +1642,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1688,17 +1685,17 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49" s="9">
         <v>9</v>
       </c>
       <c r="E49" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F49" s="9">
         <v>7</v>
@@ -1707,332 +1704,332 @@
         <v>8</v>
       </c>
       <c r="H49" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K49" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49" s="9">
         <v>10</v>
       </c>
       <c r="M49" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N49" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="10">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1.1040000000000001</v>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1.1399999999999999</v>
       </c>
       <c r="F50" s="10">
-        <v>0.87</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G50" s="10">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="H50" s="11">
-        <v>1.083</v>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1.105</v>
       </c>
       <c r="I50" s="10">
         <v>0.90500000000000003</v>
       </c>
-      <c r="J50" s="12">
-        <v>1.008</v>
-      </c>
-      <c r="K50" s="11">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="L50" s="11">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="M50" s="10">
-        <v>0.90800000000000003</v>
+      <c r="J50" s="14">
+        <v>0.995</v>
+      </c>
+      <c r="K50" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="L50" s="10">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.85399999999999998</v>
       </c>
       <c r="N50" s="10">
-        <v>0.90600000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="9">
         <v>8</v>
       </c>
       <c r="E51" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F51" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G51" s="9">
         <v>72</v>
       </c>
       <c r="H51" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I51" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J51" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K51" s="9">
-        <v>57</v>
-      </c>
-      <c r="L51" s="13">
-        <v>2426</v>
+        <v>50</v>
+      </c>
+      <c r="L51" s="15">
+        <v>1240</v>
       </c>
       <c r="M51" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N51" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="D52" s="15">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E52" s="15">
-        <v>0.97299999999999998</v>
+      <c r="B52" s="33"/>
+      <c r="C52" s="16">
+        <v>1.385</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1.012</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1.0409999999999999</v>
       </c>
       <c r="F52" s="12">
-        <v>1.056</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1.08</v>
-      </c>
-      <c r="H52" s="15">
-        <v>0.97599999999999998</v>
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="G52" s="13">
+        <v>1.115</v>
+      </c>
+      <c r="H52" s="14">
+        <v>0.98399999999999999</v>
       </c>
       <c r="I52" s="10">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J52" s="16">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1.423</v>
-      </c>
-      <c r="L52" s="18">
-        <v>1.72</v>
-      </c>
-      <c r="M52" s="10">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="N52" s="19">
-        <v>1.2010000000000001</v>
+        <v>0.93</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1.133</v>
+      </c>
+      <c r="K52" s="14">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="L52" s="17">
+        <v>1.254</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="N52" s="17">
+        <v>1.2569999999999999</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53" s="9">
+        <v>7</v>
+      </c>
+      <c r="F53" s="9">
+        <v>10</v>
+      </c>
+      <c r="G53" s="9">
+        <v>9</v>
+      </c>
+      <c r="H53" s="9">
+        <v>9</v>
+      </c>
+      <c r="I53" s="9">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9">
+        <v>9</v>
+      </c>
+      <c r="K53" s="18">
+        <v>707</v>
+      </c>
+      <c r="L53" s="18">
+        <v>724</v>
+      </c>
+      <c r="M53" s="19">
+        <v>4312</v>
+      </c>
+      <c r="N53" s="9">
         <v>11</v>
-      </c>
-      <c r="F53" s="9">
-        <v>11</v>
-      </c>
-      <c r="G53" s="9">
-        <v>10</v>
-      </c>
-      <c r="H53" s="9">
-        <v>6</v>
-      </c>
-      <c r="I53" s="9">
-        <v>14</v>
-      </c>
-      <c r="J53" s="9">
-        <v>8</v>
-      </c>
-      <c r="K53" s="20">
-        <v>1084</v>
-      </c>
-      <c r="L53" s="21">
-        <v>608</v>
-      </c>
-      <c r="M53" s="22">
-        <v>3369</v>
-      </c>
-      <c r="N53" s="9">
-        <v>10</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="11">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="D54" s="11">
-        <v>1.1379999999999999</v>
+      <c r="B54" s="33"/>
+      <c r="C54" s="17">
+        <v>1.204</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1.1839999999999999</v>
       </c>
       <c r="E54" s="12">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F54" s="11">
-        <v>1.133</v>
-      </c>
-      <c r="G54" s="15">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H54" s="17">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="I54" s="12">
-        <v>1.01</v>
-      </c>
-      <c r="J54" s="23">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="K54" s="24">
-        <v>1.871</v>
+        <v>1.157</v>
+      </c>
+      <c r="F54" s="17">
+        <v>1.236</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1.016</v>
+      </c>
+      <c r="H54" s="20">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J54" s="20">
+        <v>1.327</v>
+      </c>
+      <c r="K54" s="21">
+        <v>1.891</v>
       </c>
       <c r="L54" s="17">
-        <v>1.427</v>
-      </c>
-      <c r="M54" s="17">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="N54" s="23">
-        <v>1.4610000000000001</v>
+        <v>1.244</v>
+      </c>
+      <c r="M54" s="20">
+        <v>1.304</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1.42</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
+        <v>7</v>
+      </c>
+      <c r="D55" s="9">
+        <v>16</v>
+      </c>
+      <c r="E55" s="9">
         <v>8</v>
       </c>
-      <c r="D55" s="9">
-        <v>14</v>
-      </c>
-      <c r="E55" s="9">
-        <v>14</v>
-      </c>
       <c r="F55" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="9">
         <v>11</v>
       </c>
       <c r="H55" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="J55" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K55" s="9">
         <v>10</v>
       </c>
       <c r="L55" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M55" s="22">
-        <v>3527</v>
+        <v>2257</v>
       </c>
       <c r="N55" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="16">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="D56" s="11">
-        <v>1.0920000000000001</v>
+      <c r="B56" s="33"/>
+      <c r="C56" s="20">
+        <v>1.34</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1.1499999999999999</v>
       </c>
       <c r="E56" s="16">
-        <v>1.2709999999999999</v>
+        <v>1.401</v>
       </c>
       <c r="F56" s="16">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G56" s="19">
-        <v>1.212</v>
-      </c>
-      <c r="H56" s="17">
-        <v>1.363</v>
-      </c>
-      <c r="I56" s="18">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="J56" s="18">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="K56" s="18">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="L56" s="18">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="M56" s="25">
-        <v>1.758</v>
-      </c>
-      <c r="N56" s="11">
-        <v>1.1439999999999999</v>
+        <v>1.365</v>
+      </c>
+      <c r="G56" s="20">
+        <v>1.296</v>
+      </c>
+      <c r="H56" s="20">
+        <v>1.345</v>
+      </c>
+      <c r="I56" s="23">
+        <v>1.72</v>
+      </c>
+      <c r="J56" s="23">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="K56" s="23">
+        <v>1.702</v>
+      </c>
+      <c r="L56" s="23">
+        <v>1.73</v>
+      </c>
+      <c r="M56" s="24">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="N56" s="13">
+        <v>1.069</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
@@ -2041,335 +2038,335 @@
       <c r="D57" s="9">
         <v>10</v>
       </c>
-      <c r="E57" s="26">
-        <v>4208</v>
+      <c r="E57" s="25">
+        <v>3374</v>
       </c>
       <c r="F57" s="9">
-        <v>10</v>
-      </c>
-      <c r="G57" s="27">
-        <v>498</v>
+        <v>12</v>
+      </c>
+      <c r="G57" s="26">
+        <v>579</v>
       </c>
       <c r="H57" s="9">
-        <v>10</v>
-      </c>
-      <c r="I57" s="28">
-        <v>1920</v>
+        <v>11</v>
+      </c>
+      <c r="I57" s="27">
+        <v>1646</v>
       </c>
       <c r="J57" s="9">
         <v>10</v>
       </c>
       <c r="K57" s="9">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21">
-        <v>635</v>
+        <v>17</v>
+      </c>
+      <c r="L57" s="18">
+        <v>757</v>
       </c>
       <c r="M57" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N57" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="14">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="D58" s="11">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="E58" s="29">
-        <v>1.613</v>
-      </c>
-      <c r="F58" s="19">
-        <v>1.218</v>
-      </c>
-      <c r="G58" s="17">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="H58" s="18">
-        <v>1.69</v>
-      </c>
-      <c r="I58" s="24">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="J58" s="29">
-        <v>1.635</v>
-      </c>
-      <c r="K58" s="18">
-        <v>1.704</v>
-      </c>
-      <c r="L58" s="18">
-        <v>1.679</v>
-      </c>
-      <c r="M58" s="18">
-        <v>1.673</v>
-      </c>
-      <c r="N58" s="29">
-        <v>1.6120000000000001</v>
+      <c r="B58" s="33"/>
+      <c r="C58" s="20">
+        <v>1.345</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="E58" s="28">
+        <v>1.756</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="G58" s="29">
+        <v>1.448</v>
+      </c>
+      <c r="H58" s="23">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="I58" s="21">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="J58" s="30">
+        <v>1.657</v>
+      </c>
+      <c r="K58" s="28">
+        <v>1.744</v>
+      </c>
+      <c r="L58" s="23">
+        <v>1.714</v>
+      </c>
+      <c r="M58" s="29">
+        <v>1.466</v>
+      </c>
+      <c r="N58" s="24">
+        <v>1.569</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9">
+        <v>12</v>
+      </c>
+      <c r="E59" s="9">
+        <v>46</v>
+      </c>
+      <c r="F59" s="9">
+        <v>19</v>
+      </c>
+      <c r="G59" s="9">
+        <v>11</v>
+      </c>
+      <c r="H59" s="9">
+        <v>13</v>
+      </c>
+      <c r="I59" s="9">
+        <v>12</v>
+      </c>
+      <c r="J59" s="9">
+        <v>101</v>
+      </c>
+      <c r="K59" s="9">
         <v>9</v>
       </c>
-      <c r="D59" s="9">
-        <v>11</v>
-      </c>
-      <c r="E59" s="9">
-        <v>52</v>
-      </c>
-      <c r="F59" s="9">
-        <v>25</v>
-      </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
+        <v>8</v>
+      </c>
+      <c r="M59" s="9">
+        <v>14</v>
+      </c>
+      <c r="N59" s="9">
         <v>10</v>
-      </c>
-      <c r="H59" s="9">
-        <v>9</v>
-      </c>
-      <c r="I59" s="9">
-        <v>9</v>
-      </c>
-      <c r="J59" s="9">
-        <v>132</v>
-      </c>
-      <c r="K59" s="9">
-        <v>11</v>
-      </c>
-      <c r="L59" s="9">
-        <v>10</v>
-      </c>
-      <c r="M59" s="9">
-        <v>16</v>
-      </c>
-      <c r="N59" s="9">
-        <v>11</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="29">
-        <v>1.583</v>
-      </c>
-      <c r="D60" s="19">
-        <v>1.145</v>
-      </c>
-      <c r="E60" s="14">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="F60" s="23">
-        <v>1.444</v>
-      </c>
-      <c r="G60" s="14">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="H60" s="30">
+      <c r="B60" s="33"/>
+      <c r="C60" s="30">
+        <v>1.593</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="E60" s="16">
+        <v>1.387</v>
+      </c>
+      <c r="F60" s="29">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="G60" s="16">
+        <v>1.377</v>
+      </c>
+      <c r="H60" s="24">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="I60" s="24">
         <v>1.5129999999999999</v>
       </c>
-      <c r="I60" s="23">
-        <v>1.504</v>
-      </c>
       <c r="J60" s="30">
-        <v>1.526</v>
-      </c>
-      <c r="K60" s="30">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="L60" s="23">
-        <v>1.492</v>
-      </c>
-      <c r="M60" s="30">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="N60" s="18">
-        <v>1.714</v>
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="K60" s="24">
+        <v>1.542</v>
+      </c>
+      <c r="L60" s="29">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="M60" s="29">
+        <v>1.46</v>
+      </c>
+      <c r="N60" s="23">
+        <v>1.702</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="D61" s="19">
+        <v>4315</v>
+      </c>
+      <c r="E61" s="31">
+        <v>934</v>
+      </c>
+      <c r="F61" s="9">
+        <v>10</v>
+      </c>
+      <c r="G61" s="9">
+        <v>23</v>
+      </c>
+      <c r="H61" s="31">
+        <v>1201</v>
+      </c>
+      <c r="I61" s="9">
+        <v>25</v>
+      </c>
+      <c r="J61" s="9">
         <v>9</v>
-      </c>
-      <c r="D61" s="31">
-        <v>2971</v>
-      </c>
-      <c r="E61" s="32">
-        <v>1581</v>
-      </c>
-      <c r="F61" s="9">
-        <v>8</v>
-      </c>
-      <c r="G61" s="9">
-        <v>29</v>
-      </c>
-      <c r="H61" s="32">
-        <v>1672</v>
-      </c>
-      <c r="I61" s="9">
-        <v>31</v>
-      </c>
-      <c r="J61" s="9">
-        <v>11</v>
       </c>
       <c r="K61" s="9">
         <v>11</v>
       </c>
       <c r="L61" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M61" s="9">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="N61" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
-      <c r="C62" s="17">
-        <v>1.43</v>
-      </c>
-      <c r="D62" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="E62" s="19">
-        <v>1.165</v>
-      </c>
-      <c r="F62" s="16">
-        <v>1.23</v>
-      </c>
-      <c r="G62" s="14">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="H62" s="29">
-        <v>1.647</v>
-      </c>
-      <c r="I62" s="18">
-        <v>1.696</v>
-      </c>
-      <c r="J62" s="17">
-        <v>1.37</v>
-      </c>
-      <c r="K62" s="17">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="L62" s="17">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="M62" s="23">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="N62" s="17">
-        <v>1.413</v>
+      <c r="B62" s="33"/>
+      <c r="C62" s="29">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1.179</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1.383</v>
+      </c>
+      <c r="H62" s="23">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="I62" s="23">
+        <v>1.667</v>
+      </c>
+      <c r="J62" s="29">
+        <v>1.472</v>
+      </c>
+      <c r="K62" s="29">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="L62" s="16">
+        <v>1.417</v>
+      </c>
+      <c r="M62" s="16">
+        <v>1.397</v>
+      </c>
+      <c r="N62" s="16">
+        <v>1.431</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
         <v>11</v>
       </c>
       <c r="D63" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E63" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
         <v>13</v>
       </c>
       <c r="G63" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H63" s="9">
+        <v>9</v>
+      </c>
+      <c r="I63" s="9">
+        <v>12</v>
+      </c>
+      <c r="J63" s="9">
         <v>11</v>
       </c>
-      <c r="I63" s="9">
+      <c r="K63" s="9">
         <v>10</v>
       </c>
-      <c r="J63" s="9">
-        <v>10</v>
-      </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
+        <v>7</v>
+      </c>
+      <c r="M63" s="9">
+        <v>12</v>
+      </c>
+      <c r="N63" s="9">
         <v>11</v>
-      </c>
-      <c r="L63" s="9">
-        <v>11</v>
-      </c>
-      <c r="M63" s="9">
-        <v>11</v>
-      </c>
-      <c r="N63" s="9">
-        <v>9</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="15">
-        <v>0.996</v>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14">
+        <v>1.01</v>
       </c>
       <c r="D64" s="10">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="E64" s="12">
-        <v>1.014</v>
-      </c>
-      <c r="F64" s="12">
-        <v>1.01</v>
-      </c>
-      <c r="G64" s="19">
-        <v>1.153</v>
-      </c>
-      <c r="H64" s="19">
-        <v>1.177</v>
-      </c>
-      <c r="I64" s="16">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="J64" s="12">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="K64" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="L64" s="19">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="M64" s="12">
-        <v>1.044</v>
-      </c>
-      <c r="N64" s="12">
-        <v>1.0129999999999999</v>
+        <v>0.93</v>
+      </c>
+      <c r="E64" s="14">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1.018</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1.145</v>
+      </c>
+      <c r="H64" s="12">
+        <v>1.133</v>
+      </c>
+      <c r="I64" s="12">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="J64" s="14">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="K64" s="17">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="L64" s="12">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M64" s="14">
+        <v>1.008</v>
+      </c>
+      <c r="N64" s="14">
+        <v>1.0049999999999999</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>

--- a/raw-data/JRL_block1_30_10_7.xlsx
+++ b/raw-data/JRL_block1_30_10_7.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">387980464</definedName>
-    <definedName name="MethodPointer2">566</definedName>
+    <definedName name="MethodPointer1">919620608</definedName>
+    <definedName name="MethodPointer2">483</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_10_8.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_10_6.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -529,18 +529,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFABCEEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBAD7EF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,7 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
+        <fgColor rgb="FF6FA9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DBCE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DBCE0"/>
+        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF247CBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3385C2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
+        <fgColor rgb="FF60A0D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,70 +684,73 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45768</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.49434027777777773</v>
+        <v>0.54056712962962961</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1637,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1642,7 +1645,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1685,17 +1688,17 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="9">
         <v>9</v>
       </c>
       <c r="E49" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F49" s="9">
         <v>7</v>
@@ -1704,332 +1707,332 @@
         <v>8</v>
       </c>
       <c r="H49" s="9">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9">
         <v>8</v>
       </c>
-      <c r="I49" s="9">
-        <v>7</v>
-      </c>
       <c r="J49" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K49" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L49" s="9">
         <v>10</v>
       </c>
       <c r="M49" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N49" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="10">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D50" s="11">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1.1399999999999999</v>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1.1040000000000001</v>
       </c>
       <c r="F50" s="10">
-        <v>0.91600000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="G50" s="10">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="H50" s="13">
-        <v>1.105</v>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1.083</v>
       </c>
       <c r="I50" s="10">
         <v>0.90500000000000003</v>
       </c>
-      <c r="J50" s="14">
-        <v>0.995</v>
-      </c>
-      <c r="K50" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="M50" s="11">
-        <v>0.85399999999999998</v>
+      <c r="J50" s="12">
+        <v>1.008</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="L50" s="11">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="M50" s="10">
+        <v>0.90800000000000003</v>
       </c>
       <c r="N50" s="10">
-        <v>0.91300000000000003</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="9">
         <v>8</v>
       </c>
       <c r="E51" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F51" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G51" s="9">
         <v>72</v>
       </c>
       <c r="H51" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9">
+        <v>14</v>
+      </c>
+      <c r="J51" s="9">
+        <v>11</v>
+      </c>
+      <c r="K51" s="9">
+        <v>57</v>
+      </c>
+      <c r="L51" s="13">
+        <v>2426</v>
+      </c>
+      <c r="M51" s="9">
+        <v>8</v>
+      </c>
+      <c r="N51" s="9">
         <v>10</v>
-      </c>
-      <c r="J51" s="9">
-        <v>10</v>
-      </c>
-      <c r="K51" s="9">
-        <v>50</v>
-      </c>
-      <c r="L51" s="15">
-        <v>1240</v>
-      </c>
-      <c r="M51" s="9">
-        <v>10</v>
-      </c>
-      <c r="N51" s="9">
-        <v>9</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="16">
-        <v>1.385</v>
-      </c>
-      <c r="D52" s="14">
-        <v>1.012</v>
-      </c>
-      <c r="E52" s="14">
-        <v>1.0409999999999999</v>
+      <c r="B52" s="34"/>
+      <c r="C52" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.97299999999999998</v>
       </c>
       <c r="F52" s="12">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="G52" s="13">
-        <v>1.115</v>
-      </c>
-      <c r="H52" s="14">
-        <v>0.98399999999999999</v>
+        <v>1.056</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0.97599999999999998</v>
       </c>
       <c r="I52" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="J52" s="12">
-        <v>1.133</v>
-      </c>
-      <c r="K52" s="14">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="L52" s="17">
-        <v>1.254</v>
-      </c>
-      <c r="M52" s="11">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="N52" s="17">
-        <v>1.2569999999999999</v>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J52" s="16">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="K52" s="17">
+        <v>1.423</v>
+      </c>
+      <c r="L52" s="18">
+        <v>1.72</v>
+      </c>
+      <c r="M52" s="10">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N52" s="19">
+        <v>1.2010000000000001</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9">
+        <v>11</v>
+      </c>
+      <c r="F53" s="9">
+        <v>11</v>
+      </c>
+      <c r="G53" s="9">
         <v>10</v>
       </c>
-      <c r="D53" s="9">
-        <v>15</v>
-      </c>
-      <c r="E53" s="9">
-        <v>7</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="H53" s="9">
+        <v>6</v>
+      </c>
+      <c r="I53" s="9">
+        <v>14</v>
+      </c>
+      <c r="J53" s="9">
+        <v>8</v>
+      </c>
+      <c r="K53" s="20">
+        <v>1084</v>
+      </c>
+      <c r="L53" s="21">
+        <v>608</v>
+      </c>
+      <c r="M53" s="22">
+        <v>3369</v>
+      </c>
+      <c r="N53" s="9">
         <v>10</v>
-      </c>
-      <c r="G53" s="9">
-        <v>9</v>
-      </c>
-      <c r="H53" s="9">
-        <v>9</v>
-      </c>
-      <c r="I53" s="9">
-        <v>15</v>
-      </c>
-      <c r="J53" s="9">
-        <v>9</v>
-      </c>
-      <c r="K53" s="18">
-        <v>707</v>
-      </c>
-      <c r="L53" s="18">
-        <v>724</v>
-      </c>
-      <c r="M53" s="19">
-        <v>4312</v>
-      </c>
-      <c r="N53" s="9">
-        <v>11</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="17">
-        <v>1.204</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1.1839999999999999</v>
+      <c r="B54" s="34"/>
+      <c r="C54" s="11">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1.1379999999999999</v>
       </c>
       <c r="E54" s="12">
-        <v>1.157</v>
-      </c>
-      <c r="F54" s="17">
-        <v>1.236</v>
-      </c>
-      <c r="G54" s="14">
-        <v>1.016</v>
-      </c>
-      <c r="H54" s="20">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="I54" s="10">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="J54" s="20">
-        <v>1.327</v>
-      </c>
-      <c r="K54" s="21">
-        <v>1.891</v>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1.133</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="I54" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="J54" s="23">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="K54" s="24">
+        <v>1.871</v>
       </c>
       <c r="L54" s="17">
-        <v>1.244</v>
-      </c>
-      <c r="M54" s="20">
-        <v>1.304</v>
-      </c>
-      <c r="N54" s="16">
-        <v>1.42</v>
+        <v>1.427</v>
+      </c>
+      <c r="M54" s="17">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="N54" s="23">
+        <v>1.4610000000000001</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="9">
+        <v>14</v>
+      </c>
+      <c r="E55" s="9">
+        <v>14</v>
+      </c>
+      <c r="F55" s="9">
         <v>16</v>
-      </c>
-      <c r="E55" s="9">
-        <v>8</v>
-      </c>
-      <c r="F55" s="9">
-        <v>15</v>
       </c>
       <c r="G55" s="9">
         <v>11</v>
       </c>
       <c r="H55" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="J55" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K55" s="9">
         <v>10</v>
       </c>
       <c r="L55" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M55" s="22">
-        <v>2257</v>
+        <v>3527</v>
       </c>
       <c r="N55" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
-      <c r="C56" s="20">
-        <v>1.34</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1.1499999999999999</v>
+      <c r="B56" s="34"/>
+      <c r="C56" s="16">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1.0920000000000001</v>
       </c>
       <c r="E56" s="16">
-        <v>1.401</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="F56" s="16">
-        <v>1.365</v>
-      </c>
-      <c r="G56" s="20">
-        <v>1.296</v>
-      </c>
-      <c r="H56" s="20">
-        <v>1.345</v>
-      </c>
-      <c r="I56" s="23">
-        <v>1.72</v>
-      </c>
-      <c r="J56" s="23">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="K56" s="23">
-        <v>1.702</v>
-      </c>
-      <c r="L56" s="23">
-        <v>1.73</v>
-      </c>
-      <c r="M56" s="24">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="N56" s="13">
-        <v>1.069</v>
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1.212</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1.363</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="J56" s="18">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="K56" s="18">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="L56" s="18">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="M56" s="25">
+        <v>1.758</v>
+      </c>
+      <c r="N56" s="11">
+        <v>1.1439999999999999</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
@@ -2038,335 +2041,335 @@
       <c r="D57" s="9">
         <v>10</v>
       </c>
-      <c r="E57" s="25">
-        <v>3374</v>
+      <c r="E57" s="26">
+        <v>4208</v>
       </c>
       <c r="F57" s="9">
-        <v>12</v>
-      </c>
-      <c r="G57" s="26">
-        <v>579</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="27">
+        <v>498</v>
       </c>
       <c r="H57" s="9">
-        <v>11</v>
-      </c>
-      <c r="I57" s="27">
-        <v>1646</v>
+        <v>10</v>
+      </c>
+      <c r="I57" s="28">
+        <v>1920</v>
       </c>
       <c r="J57" s="9">
         <v>10</v>
       </c>
       <c r="K57" s="9">
-        <v>17</v>
-      </c>
-      <c r="L57" s="18">
-        <v>757</v>
+        <v>18</v>
+      </c>
+      <c r="L57" s="21">
+        <v>635</v>
       </c>
       <c r="M57" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N57" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="20">
-        <v>1.345</v>
-      </c>
-      <c r="D58" s="17">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="E58" s="28">
-        <v>1.756</v>
-      </c>
-      <c r="F58" s="20">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="G58" s="29">
-        <v>1.448</v>
-      </c>
-      <c r="H58" s="23">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="I58" s="21">
-        <v>1.8320000000000001</v>
-      </c>
-      <c r="J58" s="30">
-        <v>1.657</v>
-      </c>
-      <c r="K58" s="28">
-        <v>1.744</v>
-      </c>
-      <c r="L58" s="23">
-        <v>1.714</v>
-      </c>
-      <c r="M58" s="29">
-        <v>1.466</v>
-      </c>
-      <c r="N58" s="24">
-        <v>1.569</v>
+      <c r="B58" s="34"/>
+      <c r="C58" s="14">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="E58" s="29">
+        <v>1.613</v>
+      </c>
+      <c r="F58" s="19">
+        <v>1.218</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="H58" s="18">
+        <v>1.69</v>
+      </c>
+      <c r="I58" s="24">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="J58" s="29">
+        <v>1.635</v>
+      </c>
+      <c r="K58" s="18">
+        <v>1.704</v>
+      </c>
+      <c r="L58" s="18">
+        <v>1.679</v>
+      </c>
+      <c r="M58" s="18">
+        <v>1.673</v>
+      </c>
+      <c r="N58" s="29">
+        <v>1.6120000000000001</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F59" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G59" s="9">
+        <v>10</v>
+      </c>
+      <c r="H59" s="9">
+        <v>9</v>
+      </c>
+      <c r="I59" s="9">
+        <v>9</v>
+      </c>
+      <c r="J59" s="9">
+        <v>132</v>
+      </c>
+      <c r="K59" s="9">
         <v>11</v>
       </c>
-      <c r="H59" s="9">
-        <v>13</v>
-      </c>
-      <c r="I59" s="9">
-        <v>12</v>
-      </c>
-      <c r="J59" s="9">
-        <v>101</v>
-      </c>
-      <c r="K59" s="9">
-        <v>9</v>
-      </c>
       <c r="L59" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M59" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N59" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="30">
-        <v>1.593</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1.2270000000000001</v>
-      </c>
-      <c r="E60" s="16">
-        <v>1.387</v>
-      </c>
-      <c r="F60" s="29">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="G60" s="16">
-        <v>1.377</v>
-      </c>
-      <c r="H60" s="24">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="I60" s="24">
+      <c r="B60" s="34"/>
+      <c r="C60" s="29">
+        <v>1.583</v>
+      </c>
+      <c r="D60" s="19">
+        <v>1.145</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="F60" s="23">
+        <v>1.444</v>
+      </c>
+      <c r="G60" s="14">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="H60" s="30">
         <v>1.5129999999999999</v>
       </c>
+      <c r="I60" s="23">
+        <v>1.504</v>
+      </c>
       <c r="J60" s="30">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="K60" s="24">
-        <v>1.542</v>
-      </c>
-      <c r="L60" s="29">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="M60" s="29">
-        <v>1.46</v>
-      </c>
-      <c r="N60" s="23">
-        <v>1.702</v>
+        <v>1.526</v>
+      </c>
+      <c r="K60" s="30">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="L60" s="23">
+        <v>1.492</v>
+      </c>
+      <c r="M60" s="30">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="N60" s="18">
+        <v>1.714</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
-        <v>10</v>
-      </c>
-      <c r="D61" s="19">
-        <v>4315</v>
-      </c>
-      <c r="E61" s="31">
-        <v>934</v>
+        <v>9</v>
+      </c>
+      <c r="D61" s="31">
+        <v>2971</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1581</v>
       </c>
       <c r="F61" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="9">
-        <v>23</v>
-      </c>
-      <c r="H61" s="31">
-        <v>1201</v>
+        <v>29</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1672</v>
       </c>
       <c r="I61" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J61" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K61" s="9">
         <v>11</v>
       </c>
       <c r="L61" s="9">
+        <v>9</v>
+      </c>
+      <c r="M61" s="9">
+        <v>267</v>
+      </c>
+      <c r="N61" s="9">
         <v>10</v>
-      </c>
-      <c r="M61" s="9">
-        <v>175</v>
-      </c>
-      <c r="N61" s="9">
-        <v>11</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="29">
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="D62" s="17">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="E62" s="12">
-        <v>1.179</v>
-      </c>
-      <c r="F62" s="12">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="G62" s="16">
-        <v>1.383</v>
-      </c>
-      <c r="H62" s="23">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="I62" s="23">
-        <v>1.667</v>
-      </c>
-      <c r="J62" s="29">
-        <v>1.472</v>
-      </c>
-      <c r="K62" s="29">
-        <v>1.4730000000000001</v>
-      </c>
-      <c r="L62" s="16">
-        <v>1.417</v>
-      </c>
-      <c r="M62" s="16">
-        <v>1.397</v>
-      </c>
-      <c r="N62" s="16">
-        <v>1.431</v>
+      <c r="B62" s="34"/>
+      <c r="C62" s="17">
+        <v>1.43</v>
+      </c>
+      <c r="D62" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="E62" s="19">
+        <v>1.165</v>
+      </c>
+      <c r="F62" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="G62" s="14">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="H62" s="29">
+        <v>1.647</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1.696</v>
+      </c>
+      <c r="J62" s="17">
+        <v>1.37</v>
+      </c>
+      <c r="K62" s="17">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="L62" s="17">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="M62" s="23">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="N62" s="17">
+        <v>1.413</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="33" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
         <v>11</v>
       </c>
       <c r="D63" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E63" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="9">
         <v>13</v>
       </c>
       <c r="G63" s="9">
+        <v>8</v>
+      </c>
+      <c r="H63" s="9">
         <v>11</v>
       </c>
-      <c r="H63" s="9">
+      <c r="I63" s="9">
+        <v>10</v>
+      </c>
+      <c r="J63" s="9">
+        <v>10</v>
+      </c>
+      <c r="K63" s="9">
+        <v>11</v>
+      </c>
+      <c r="L63" s="9">
+        <v>11</v>
+      </c>
+      <c r="M63" s="9">
+        <v>11</v>
+      </c>
+      <c r="N63" s="9">
         <v>9</v>
-      </c>
-      <c r="I63" s="9">
-        <v>12</v>
-      </c>
-      <c r="J63" s="9">
-        <v>11</v>
-      </c>
-      <c r="K63" s="9">
-        <v>10</v>
-      </c>
-      <c r="L63" s="9">
-        <v>7</v>
-      </c>
-      <c r="M63" s="9">
-        <v>12</v>
-      </c>
-      <c r="N63" s="9">
-        <v>11</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="14">
+      <c r="B64" s="34"/>
+      <c r="C64" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1.014</v>
+      </c>
+      <c r="F64" s="12">
         <v>1.01</v>
       </c>
-      <c r="D64" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="E64" s="14">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="F64" s="14">
-        <v>1.018</v>
-      </c>
-      <c r="G64" s="12">
-        <v>1.145</v>
-      </c>
-      <c r="H64" s="12">
-        <v>1.133</v>
-      </c>
-      <c r="I64" s="12">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="J64" s="14">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="K64" s="17">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="L64" s="12">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="M64" s="14">
-        <v>1.008</v>
-      </c>
-      <c r="N64" s="14">
-        <v>1.0049999999999999</v>
+      <c r="G64" s="19">
+        <v>1.153</v>
+      </c>
+      <c r="H64" s="19">
+        <v>1.177</v>
+      </c>
+      <c r="I64" s="16">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="J64" s="12">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K64" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="L64" s="19">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="M64" s="12">
+        <v>1.044</v>
+      </c>
+      <c r="N64" s="12">
+        <v>1.0129999999999999</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
